--- a/docs/_data/list_book_excel.xlsx
+++ b/docs/_data/list_book_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\rnn-sda\docs\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FDBEE2-1061-4F04-B36D-462DCABF5B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C757B2-E64F-46E5-9B63-48478992E3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C61ED648-A9B0-4717-84B5-772F42EF8872}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>no</t>
   </si>
@@ -564,14 +564,17 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="11" width="23.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="23.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="50" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -633,6 +636,9 @@
       <c r="H2" s="4">
         <v>3030317552</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K2" s="2" t="s">
         <v>47</v>
       </c>
@@ -683,6 +689,9 @@
         <v>23</v>
       </c>
       <c r="H4" s="4"/>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>47</v>
       </c>
@@ -706,6 +715,9 @@
       <c r="H5" s="4">
         <v>9789537619084</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
@@ -764,6 +776,9 @@
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K7" s="2" t="s">
         <v>48</v>
       </c>
@@ -790,6 +805,9 @@
       <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>49</v>
       </c>
@@ -815,6 +833,9 @@
       </c>
       <c r="I9" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>48</v>
